--- a/exports/students.xlsx
+++ b/exports/students.xlsx
@@ -486,7 +486,7 @@
         <v>test</v>
       </c>
       <c r="D3" t="str">
-        <v>1111-11-11</v>
+        <v>1360-10-29</v>
       </c>
       <c r="E3" t="str">
         <v>Nữ</v>
